--- a/biology/Botanique/Lakatan/Lakatan.xlsx
+++ b/biology/Botanique/Lakatan/Lakatan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lakatan (à ne pas confondre avec le cultivar Lacatan du groupe des bananiers Cavendish, appelé également 'Bungulan') est un cultivar de bananier diploïde originaire des Philippines. 
-C'est l'un des cultivars de bananiers les plus communs aux Philippines, avec les cultivars 'Latundan' et 'Saba'[1].
+C'est l'un des cultivars de bananiers les plus communs aux Philippines, avec les cultivars 'Latundan' et 'Saba'.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Taxinomie et nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cultivar Lakatan est un bananier diploïde du  groupe AA[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cultivar Lakatan est un bananier diploïde du  groupe AA.
 Sa désignation officielle est : Musa acuminata (Groupe AA ) 'Lakatan'.
 Synonymes :
 Musa x paradisiaca L.  ssp. sapientum (L.) Kuntze var. lacatan Blanco 
 Musa acuminata Colla (Cavendish Group) cv. 'Lacatan'
 Le cultivar Masak Hijau (Musa acuminata Colla (Groupe AAA) cv. 'Masak Hijau') du groupe Cavendish est également appelé 'Lacatan' en Amérique latine et aux Antilles. 
-Ce cultivar a été décrit à l'origine par Francisco Manuel Blanco sous le nom de « Lacatan », mais la lettre « c » a été remplacée par la lettre « k » pour le différencier du Lacatan américain, qui est en fait un Bungulan[3],  appelé aussi 'Jamaican Lacatan'[2],[4].
+Ce cultivar a été décrit à l'origine par Francisco Manuel Blanco sous le nom de « Lacatan », mais la lettre « c » a été remplacée par la lettre « k » pour le différencier du Lacatan américain, qui est en fait un Bungulan,  appelé aussi 'Jamaican Lacatan',.
 </t>
         </is>
       </c>
@@ -549,12 +563,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bananier Lakatan croît généralement jusqu'à une hauteur de 1,5 à 2,8 mètres. 
-Les fruits peuvent être récoltés 8 à 12 mois après la plantation[5]. 
+Les fruits peuvent être récoltés 8 à 12 mois après la plantation. 
 Lakatan est sensible au virus du sommet touffu du bananier (BBTV, Banana Bunchy Top Virus).
-Les fruits de Lakatan sont plus longs et ont une peau plus épaisse que les bananes 'Latundan' et prennent à maturité une couleur jaune-orange caractéristique [6],[7].
+Les fruits de Lakatan sont plus longs et ont une peau plus épaisse que les bananes 'Latundan' et prennent à maturité une couleur jaune-orange caractéristique ,.
 </t>
         </is>
       </c>
@@ -583,11 +599,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Lakatan est la banane dessert la plus populaire aux Philippines. Elle est plus chère que les variétés plus communes, 'Latundan' et 'Cavendish'. 
-Toutefois, les Philippins préfèrent aussi bien[pas clair] les 'Latundan' et les 'Lakatan' aux 'Cavendish'[8].
-Cette banane a une teneur en β-carotène plus élevée que les autres variétés[9].
+Toutefois, les Philippins préfèrent aussi bien[pas clair] les 'Latundan' et les 'Lakatan' aux 'Cavendish'.
+Cette banane a une teneur en β-carotène plus élevée que les autres variétés.
 </t>
         </is>
       </c>
